--- a/logs/bnb-eth-production.xlsx
+++ b/logs/bnb-eth-production.xlsx
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44886.18241486625</v>
+        <v>44886.23574612737</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -475,7 +475,7 @@
         <v>0.024</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2286</v>
+        <v>0.2288</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44886.18241486625</v>
+        <v>44886.23574612737</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
         <v>0.024</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2274</v>
+        <v>0.2276</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44886.18241486625</v>
+        <v>44886.23574612737</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         <v>0.024</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2263</v>
+        <v>0.2265</v>
       </c>
     </row>
     <row r="5">
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44886.18241486625</v>
+        <v>44886.23574612737</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         <v>0.024</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2251</v>
+        <v>0.2253</v>
       </c>
     </row>
     <row r="6">
@@ -540,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44886.18241486625</v>
+        <v>44886.23574612737</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         <v>0.255</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2308</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44886.18241486625</v>
+        <v>44886.23574612737</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         <v>0.255</v>
       </c>
       <c r="E7" t="n">
-        <v>0.232</v>
+        <v>0.2322</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44886.18241486625</v>
+        <v>44886.23574612737</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         <v>0.255</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2331</v>
+        <v>0.2333</v>
       </c>
     </row>
     <row r="9">
@@ -597,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>44886.18241486625</v>
+        <v>44886.23574612737</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         <v>0.255</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2343</v>
+        <v>0.2345</v>
       </c>
     </row>
   </sheetData>
